--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H2">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N2">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O2">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P2">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q2">
-        <v>37.75104382730022</v>
+        <v>2.841047088391111</v>
       </c>
       <c r="R2">
-        <v>339.759394445702</v>
+        <v>25.56942379552</v>
       </c>
       <c r="S2">
-        <v>0.1120614267244534</v>
+        <v>0.02110331958803643</v>
       </c>
       <c r="T2">
-        <v>0.1120614267244534</v>
+        <v>0.02110331958803643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H3">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.71831</v>
       </c>
       <c r="O3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q3">
-        <v>15.52706831219889</v>
+        <v>11.28884659153778</v>
       </c>
       <c r="R3">
-        <v>139.74361480979</v>
+        <v>101.59961932384</v>
       </c>
       <c r="S3">
-        <v>0.04609105474998182</v>
+        <v>0.08385363916528703</v>
       </c>
       <c r="T3">
-        <v>0.04609105474998182</v>
+        <v>0.08385363916528701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H4">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I4">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J4">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>27.368585</v>
       </c>
       <c r="O4">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P4">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q4">
-        <v>5.016080808307223</v>
+        <v>3.646906524604444</v>
       </c>
       <c r="R4">
-        <v>45.144727274765</v>
+        <v>32.82215872144</v>
       </c>
       <c r="S4">
-        <v>0.01488989746920744</v>
+        <v>0.02708924966815895</v>
       </c>
       <c r="T4">
-        <v>0.01488989746920744</v>
+        <v>0.02708924966815895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.213034</v>
       </c>
       <c r="I5">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J5">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N5">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O5">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P5">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q5">
-        <v>142.1929306445169</v>
+        <v>14.71862922240222</v>
       </c>
       <c r="R5">
-        <v>1279.736375800652</v>
+        <v>132.46766300162</v>
       </c>
       <c r="S5">
-        <v>0.4220901215619542</v>
+        <v>0.1093300908835222</v>
       </c>
       <c r="T5">
-        <v>0.4220901215619542</v>
+        <v>0.1093300908835222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.213034</v>
       </c>
       <c r="I6">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J6">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.71831</v>
       </c>
       <c r="O6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q6">
         <v>58.48419338361555</v>
@@ -818,10 +818,10 @@
         <v>526.35774045254</v>
       </c>
       <c r="S6">
-        <v>0.1736063824189492</v>
+        <v>0.4344210375344044</v>
       </c>
       <c r="T6">
-        <v>0.1736063824189493</v>
+        <v>0.4344210375344044</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.213034</v>
       </c>
       <c r="I7">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J7">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>27.368585</v>
       </c>
       <c r="O7">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P7">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q7">
         <v>18.89354990409889</v>
@@ -880,10 +880,10 @@
         <v>170.04194913689</v>
       </c>
       <c r="S7">
-        <v>0.05608422823561421</v>
+        <v>0.1403414337650094</v>
       </c>
       <c r="T7">
-        <v>0.05608422823561422</v>
+        <v>0.1403414337650094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H8">
         <v>1.669856</v>
       </c>
       <c r="I8">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J8">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N8">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O8">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P8">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q8">
-        <v>38.21670996719644</v>
+        <v>3.955875876231111</v>
       </c>
       <c r="R8">
-        <v>343.950389704768</v>
+        <v>35.60288288608</v>
       </c>
       <c r="S8">
-        <v>0.1134437252445357</v>
+        <v>0.02938427638451598</v>
       </c>
       <c r="T8">
-        <v>0.1134437252445357</v>
+        <v>0.02938427638451597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H9">
         <v>1.669856</v>
       </c>
       <c r="I9">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J9">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>84.71831</v>
       </c>
       <c r="O9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q9">
         <v>15.71859758481778</v>
@@ -1004,10 +1004,10 @@
         <v>141.46737826336</v>
       </c>
       <c r="S9">
-        <v>0.04665959647421483</v>
+        <v>0.1167578635579735</v>
       </c>
       <c r="T9">
-        <v>0.04665959647421483</v>
+        <v>0.1167578635579735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H10">
         <v>1.669856</v>
       </c>
       <c r="I10">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J10">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>27.368585</v>
       </c>
       <c r="O10">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P10">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q10">
-        <v>5.077955097084444</v>
+        <v>5.077955097084445</v>
       </c>
       <c r="R10">
-        <v>45.70159587375999</v>
+        <v>45.70159587376</v>
       </c>
       <c r="S10">
-        <v>0.01507356712108928</v>
+        <v>0.03771908945309226</v>
       </c>
       <c r="T10">
-        <v>0.01507356712108928</v>
+        <v>0.03771908945309225</v>
       </c>
     </row>
   </sheetData>
